--- a/Intefaces/DCC/Precios.xlsx
+++ b/Intefaces/DCC/Precios.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="DCC_0.0.1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="DCC_0.0.1_All" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="64">
   <si>
     <t xml:space="preserve">Ref</t>
   </si>
@@ -197,6 +198,21 @@
   </si>
   <si>
     <t xml:space="preserve">JLPCB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+IVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comprado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TotalC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sin Iva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Con Iva</t>
   </si>
 </sst>
 </file>
@@ -211,6 +227,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -296,13 +313,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.43"/>
@@ -735,6 +752,15 @@
         <v>6.97</v>
       </c>
     </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H19" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <f aca="false">1.21*I18</f>
+        <v>8.4337</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -744,4 +770,647 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="20.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="46.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.87"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <f aca="false">H2*B2</f>
+        <v>0.2</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <f aca="false">J2*H2</f>
+        <v>2</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <f aca="false">J2/B2</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <f aca="false">H3*B3</f>
+        <v>0.2</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <f aca="false">J3*H3</f>
+        <v>0.8</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <f aca="false">J3/B3</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <f aca="false">H4*B4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <f aca="false">J4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <f aca="false">J4/B4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <f aca="false">H5*B5</f>
+        <v>0.4</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <f aca="false">J5*H5</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <f aca="false">J5/B5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <f aca="false">H6*B6</f>
+        <v>0.2</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <f aca="false">J6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <f aca="false">J6/B6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <f aca="false">H7*B7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <f aca="false">J7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <f aca="false">J7/B7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <f aca="false">H8*B8</f>
+        <v>0.2</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <f aca="false">J8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <f aca="false">J8/B8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <f aca="false">H9*B9</f>
+        <v>0.04</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <f aca="false">J9*H9</f>
+        <v>0.4</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <f aca="false">J9/B9</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <f aca="false">H10*B10</f>
+        <v>0.04</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <f aca="false">J10*H10</f>
+        <v>0.4</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <f aca="false">J10/B10</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <f aca="false">H11*B11</f>
+        <v>0.04</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <f aca="false">J11*H11</f>
+        <v>0.4</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <f aca="false">J11/B11</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <f aca="false">H12*B12</f>
+        <v>0.08</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <f aca="false">J12*H12</f>
+        <v>0.8</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <f aca="false">J12/B12</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <f aca="false">H13*B13</f>
+        <v>1.26</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <f aca="false">J13*H13</f>
+        <v>6.3</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <f aca="false">J13/B13</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <f aca="false">H14*B14</f>
+        <v>0.31</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <f aca="false">J14*H14</f>
+        <v>1.55</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <f aca="false">J14/B14</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <f aca="false">20/5</f>
+        <v>4</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <f aca="false">H15*B15</f>
+        <v>4</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <f aca="false">J15*H15</f>
+        <v>20</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <f aca="false">J15/B15</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H18" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <f aca="false">SUM(I2:I17)</f>
+        <v>6.97</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <f aca="false">SUM(K2:K17)</f>
+        <v>32.65</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <f aca="false">K18/4</f>
+        <v>8.1625</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H19" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <f aca="false">I18*1.21</f>
+        <v>8.4337</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <f aca="false">K18*1.21</f>
+        <v>39.5065</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <f aca="false">L18*1.21</f>
+        <v>9.876625</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Intefaces/DCC/Precios.xlsx
+++ b/Intefaces/DCC/Precios.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DCC_0.0.1" sheetId="1" state="visible" r:id="rId2"/>
@@ -309,17 +309,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.43"/>
@@ -738,18 +738,17 @@
         <v>58</v>
       </c>
       <c r="H15" s="0" t="n">
-        <f aca="false">20/5</f>
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="I15" s="0" t="n">
         <f aca="false">H15*B15</f>
-        <v>4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I18" s="0" t="n">
         <f aca="false">SUM(I2:I17)</f>
-        <v>6.97</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -758,7 +757,7 @@
       </c>
       <c r="I19" s="0" t="n">
         <f aca="false">1.21*I18</f>
-        <v>8.4337</v>
+        <v>5.0457</v>
       </c>
     </row>
   </sheetData>
@@ -773,17 +772,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.43"/>
@@ -1351,23 +1350,22 @@
         <v>58</v>
       </c>
       <c r="H15" s="0" t="n">
-        <f aca="false">20/5</f>
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="I15" s="0" t="n">
         <f aca="false">H15*B15</f>
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K15" s="0" t="n">
         <f aca="false">J15*H15</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L15" s="0" t="n">
         <f aca="false">J15/B15</f>
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1376,15 +1374,15 @@
       </c>
       <c r="I18" s="0" t="n">
         <f aca="false">SUM(I2:I17)</f>
-        <v>6.97</v>
+        <v>4.17</v>
       </c>
       <c r="K18" s="0" t="n">
         <f aca="false">SUM(K2:K17)</f>
-        <v>32.65</v>
+        <v>30.65</v>
       </c>
       <c r="L18" s="0" t="n">
         <f aca="false">K18/4</f>
-        <v>8.1625</v>
+        <v>7.6625</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1393,15 +1391,15 @@
       </c>
       <c r="I19" s="0" t="n">
         <f aca="false">I18*1.21</f>
-        <v>8.4337</v>
+        <v>5.0457</v>
       </c>
       <c r="K19" s="0" t="n">
         <f aca="false">K18*1.21</f>
-        <v>39.5065</v>
+        <v>37.0865</v>
       </c>
       <c r="L19" s="0" t="n">
         <f aca="false">L18*1.21</f>
-        <v>9.876625</v>
+        <v>9.271625</v>
       </c>
     </row>
   </sheetData>
